--- a/Test Excels/HUD_Crawler_Test_Excel.xlsx
+++ b/Test Excels/HUD_Crawler_Test_Excel.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A7AE2-FA43-4B1D-B39D-97252E655721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="152">
   <si>
     <t>dataset_name</t>
   </si>
@@ -202,15 +208,75 @@
     <t>Pennsylvania</t>
   </si>
   <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>NJ</t>
+  </si>
+  <si>
     <t>Montgomery County</t>
   </si>
   <si>
+    <t>Chester County</t>
+  </si>
+  <si>
+    <t>Delaware County</t>
+  </si>
+  <si>
+    <t>Bucks County</t>
+  </si>
+  <si>
+    <t>Philadelphia County</t>
+  </si>
+  <si>
+    <t>Camden County</t>
+  </si>
+  <si>
+    <t>Burlington County</t>
+  </si>
+  <si>
+    <t>42029</t>
+  </si>
+  <si>
+    <t>42045</t>
+  </si>
+  <si>
+    <t>42017</t>
+  </si>
+  <si>
+    <t>42101</t>
+  </si>
+  <si>
+    <t>34007</t>
+  </si>
+  <si>
+    <t>34005</t>
+  </si>
+  <si>
     <t>HMFA42091</t>
   </si>
   <si>
+    <t>HMFA42029</t>
+  </si>
+  <si>
+    <t>HMFA42045</t>
+  </si>
+  <si>
+    <t>HMFA42017</t>
+  </si>
+  <si>
+    <t>HMFA42101</t>
+  </si>
+  <si>
+    <t>HMFA34007</t>
+  </si>
+  <si>
+    <t>HMFA34005</t>
+  </si>
+  <si>
     <t>Metropolitan</t>
   </si>
   <si>
@@ -259,9 +325,45 @@
     <t>Mill Grove Apartments</t>
   </si>
   <si>
+    <t>Chester Test Property</t>
+  </si>
+  <si>
+    <t>Delco Test Property</t>
+  </si>
+  <si>
+    <t>Bucks Test Property</t>
+  </si>
+  <si>
+    <t>Philly Test Property</t>
+  </si>
+  <si>
+    <t>Camden Test Property</t>
+  </si>
+  <si>
+    <t>Burlington Test Property</t>
+  </si>
+  <si>
     <t>131 Mill Grove Dr, Norristown, PA</t>
   </si>
   <si>
+    <t>123 Main St, West Chester, PA 19380</t>
+  </si>
+  <si>
+    <t>55 Market St, Media, PA 19063</t>
+  </si>
+  <si>
+    <t>400 Maple Ave, Doylestown, PA 18901</t>
+  </si>
+  <si>
+    <t>800 Broad St, Philadelphia, PA 19146</t>
+  </si>
+  <si>
+    <t>22 River Rd, Camden, NJ 08102</t>
+  </si>
+  <si>
+    <t>900 Kings Hwy, Moorestown, NJ 08057</t>
+  </si>
+  <si>
     <t>Multifamily</t>
   </si>
   <si>
@@ -289,12 +391,39 @@
     <t>$950</t>
   </si>
   <si>
+    <t>735649</t>
+  </si>
+  <si>
+    <t>696820</t>
+  </si>
+  <si>
+    <t>107158</t>
+  </si>
+  <si>
+    <t>992335</t>
+  </si>
+  <si>
+    <t>961294</t>
+  </si>
+  <si>
+    <t>221206</t>
+  </si>
+  <si>
+    <t>37980</t>
+  </si>
+  <si>
+    <t>37964</t>
+  </si>
+  <si>
+    <t>15804</t>
+  </si>
+  <si>
+    <t>36180</t>
+  </si>
+  <si>
     <t>Mid-Atlantic Region</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>https://www.huduser.gov/portal/datasets/fmr.html</t>
   </si>
   <si>
@@ -314,16 +443,50 @@
   </si>
   <si>
     <t>Run_2025_10_29_001</t>
+  </si>
+  <si>
+    <t>Chester County Housing Authority</t>
+  </si>
+  <si>
+    <t>4 Person Household</t>
+  </si>
+  <si>
+    <t>3 Person Household</t>
+  </si>
+  <si>
+    <t>6 Person Household</t>
+  </si>
+  <si>
+    <t>Delaware County Housing Authority</t>
+  </si>
+  <si>
+    <t>Bucks County Housing Authority</t>
+  </si>
+  <si>
+    <t>Philadelphia County Housing Authority</t>
+  </si>
+  <si>
+    <t>Camden County Housing Authority</t>
+  </si>
+  <si>
+    <t>Burlington County Housing Authority</t>
+  </si>
+  <si>
+    <t>08021</t>
+  </si>
+  <si>
+    <t>08010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00%"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -334,20 +497,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -360,7 +518,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -370,94 +528,64 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -490,79 +618,79 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -583,53 +711,54 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="51000"/>
+                <a:shade val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
+                <a:shade val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="9500"/>
+              <a:shade val="95000"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -639,7 +768,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -648,7 +777,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -657,7 +786,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -665,10 +794,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -697,7 +826,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="20000"/>
+                <a:shade val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -710,12 +839,13 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
+                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -733,83 +863,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:BH2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BH8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="11" width="24.005" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="12" width="15.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="36" max="36" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="37" max="37" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="38" max="38" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="39" max="39" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="40" max="40" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="41" max="41" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="42" max="42" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="43" max="43" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="44" max="44" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="45" max="45" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="46" max="46" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="47" max="47" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="48" max="48" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="49" max="49" style="13" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="50" max="50" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="51" max="51" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="52" max="52" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="53" max="53" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="54" max="54" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="55" max="55" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="56" max="56" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="57" max="57" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="58" max="58" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="59" max="59" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="60" max="60" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" width="29.33203125" customWidth="1"/>
+    <col min="30" max="30" width="17.33203125" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" customWidth="1"/>
+    <col min="35" max="35" width="24" customWidth="1"/>
+    <col min="36" max="36" width="19.88671875" customWidth="1"/>
+    <col min="39" max="39" width="22.44140625" customWidth="1"/>
+    <col min="42" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -821,13 +898,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -836,19 +913,19 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -866,16 +943,16 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
@@ -896,7 +973,7 @@
       <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AF1" s="1" t="s">
@@ -917,7 +994,7 @@
       <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AM1" s="1" t="s">
@@ -926,7 +1003,7 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="AP1" s="1" t="s">
@@ -947,16 +1024,16 @@
       <c r="AU1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="4" t="s">
+      <c r="AV1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="4" t="s">
+      <c r="AW1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AX1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AY1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AZ1" s="1" t="s">
@@ -987,189 +1064,1290 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>2025</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2">
+        <v>42091</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2">
+        <v>37980</v>
+      </c>
+      <c r="I2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K2">
+        <v>19406</v>
+      </c>
+      <c r="L2">
+        <v>101000</v>
+      </c>
+      <c r="M2">
+        <v>24000</v>
+      </c>
+      <c r="N2">
+        <v>45000</v>
+      </c>
+      <c r="O2">
+        <v>67000</v>
+      </c>
+      <c r="P2" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>88</v>
+      </c>
+      <c r="R2" t="s">
+        <v>89</v>
+      </c>
+      <c r="S2" t="s">
+        <v>90</v>
+      </c>
+      <c r="T2" t="s">
+        <v>91</v>
+      </c>
+      <c r="U2">
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <v>40</v>
+      </c>
+      <c r="W2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="X2">
+        <v>30</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE2">
+        <v>921</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL2">
+        <v>2006</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO2">
+        <v>94</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV2">
+        <v>40.570999999999998</v>
+      </c>
+      <c r="AW2">
+        <v>-77.56</v>
+      </c>
+      <c r="AX2">
+        <v>42027012000</v>
+      </c>
+      <c r="AY2">
+        <v>37964</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA2" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3">
+        <v>37980</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3">
+        <v>19320</v>
+      </c>
+      <c r="L3">
+        <v>95000</v>
+      </c>
+      <c r="M3">
+        <v>30000</v>
+      </c>
+      <c r="N3">
+        <v>50000</v>
+      </c>
+      <c r="O3">
+        <v>80000</v>
+      </c>
+      <c r="P3">
+        <v>2020</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U3">
+        <v>134</v>
+      </c>
+      <c r="V3">
+        <v>131</v>
+      </c>
+      <c r="W3">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="X3">
+        <v>112</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE3">
+        <v>721</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL3">
+        <v>1998</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO3">
+        <v>93</v>
+      </c>
+      <c r="AP3" s="3">
+        <v>45027</v>
+      </c>
+      <c r="AQ3" s="3">
+        <v>45346</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>26552</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>925</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>367</v>
+      </c>
+      <c r="AV3">
+        <v>40</v>
+      </c>
+      <c r="AW3">
+        <v>-75.599999999999994</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA3" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE3" s="3">
+        <v>45025</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4">
+        <v>2024</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>37980</v>
+      </c>
+      <c r="I4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4">
+        <v>19082</v>
+      </c>
+      <c r="L4">
+        <v>78000</v>
+      </c>
+      <c r="M4">
+        <v>31000</v>
+      </c>
+      <c r="N4">
+        <v>51000</v>
+      </c>
+      <c r="O4">
+        <v>81000</v>
+      </c>
+      <c r="P4">
+        <v>2021</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" t="s">
+        <v>89</v>
+      </c>
+      <c r="S4" t="s">
+        <v>90</v>
+      </c>
+      <c r="T4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U4">
+        <v>89</v>
+      </c>
+      <c r="V4">
+        <v>80</v>
+      </c>
+      <c r="W4">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="X4">
+        <v>58</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE4">
+        <v>569</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL4">
+        <v>2017</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO4">
+        <v>98</v>
+      </c>
+      <c r="AP4" s="3">
+        <v>45450</v>
+      </c>
+      <c r="AQ4" s="3">
+        <v>45437</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>38503</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>447</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="AV4">
+        <v>39.92</v>
+      </c>
+      <c r="AW4">
+        <v>-75.39</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA4" t="b">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE4" s="3">
+        <v>44987</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5">
+        <v>37980</v>
+      </c>
+      <c r="I5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5">
+        <v>18901</v>
+      </c>
+      <c r="L5">
+        <v>89000</v>
+      </c>
+      <c r="M5">
+        <v>32000</v>
+      </c>
+      <c r="N5">
+        <v>52000</v>
+      </c>
+      <c r="O5">
+        <v>82000</v>
+      </c>
+      <c r="P5">
+        <v>2022</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>143</v>
+      </c>
+      <c r="R5" t="s">
+        <v>89</v>
+      </c>
+      <c r="S5" t="s">
+        <v>90</v>
+      </c>
+      <c r="T5" t="s">
+        <v>91</v>
+      </c>
+      <c r="U5">
+        <v>133</v>
+      </c>
+      <c r="V5">
+        <v>130</v>
+      </c>
+      <c r="W5">
+        <v>2.3E-2</v>
+      </c>
+      <c r="X5">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5">
+        <v>600</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL5">
+        <v>1957</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO5">
+        <v>94</v>
+      </c>
+      <c r="AP5" s="3">
+        <v>45025</v>
+      </c>
+      <c r="AQ5" s="3">
+        <v>45018</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>16457</v>
+      </c>
+      <c r="AT5" s="4">
+        <v>320</v>
+      </c>
+      <c r="AU5" s="4">
+        <v>1379</v>
+      </c>
+      <c r="AV5">
+        <v>40.31</v>
+      </c>
+      <c r="AW5">
+        <v>-75.13</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE5" s="3">
+        <v>45226</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6">
+        <v>37980</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6">
+        <v>19103</v>
+      </c>
+      <c r="L6">
+        <v>63000</v>
+      </c>
+      <c r="M6">
+        <v>33000</v>
+      </c>
+      <c r="N6">
+        <v>53000</v>
+      </c>
+      <c r="O6">
+        <v>83000</v>
+      </c>
+      <c r="P6">
+        <v>2023</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>144</v>
+      </c>
+      <c r="R6" t="s">
+        <v>89</v>
+      </c>
+      <c r="S6" t="s">
+        <v>90</v>
+      </c>
+      <c r="T6" t="s">
+        <v>91</v>
+      </c>
+      <c r="U6">
+        <v>102</v>
+      </c>
+      <c r="V6">
+        <v>99</v>
+      </c>
+      <c r="W6">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="X6">
+        <v>72</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE6">
+        <v>3202</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL6">
+        <v>1975</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO6">
+        <v>88</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>45525</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>45167</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>26610</v>
+      </c>
+      <c r="AT6" s="4">
+        <v>312</v>
+      </c>
+      <c r="AU6" s="4">
+        <v>1431</v>
+      </c>
+      <c r="AV6">
+        <v>39.94</v>
+      </c>
+      <c r="AW6">
+        <v>-75.16</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA6" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>45040</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="6">
-        <v>42091</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="6">
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7">
         <v>37980</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="K2" s="6">
-        <v>19406</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="L7">
+        <v>53000</v>
+      </c>
+      <c r="M7">
+        <v>34000</v>
+      </c>
+      <c r="N7">
+        <v>54000</v>
+      </c>
+      <c r="O7">
+        <v>84000</v>
+      </c>
+      <c r="P7">
+        <v>2024</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7">
+        <v>48</v>
+      </c>
+      <c r="V7">
+        <v>45</v>
+      </c>
+      <c r="W7">
+        <v>6.2E-2</v>
+      </c>
+      <c r="X7">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>148</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7">
+        <v>2456</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL7">
+        <v>1952</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO7">
+        <v>93</v>
+      </c>
+      <c r="AP7" s="3">
+        <v>45420</v>
+      </c>
+      <c r="AQ7" s="3">
+        <v>45067</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS7" s="4">
+        <v>31389</v>
+      </c>
+      <c r="AT7" s="4">
+        <v>542</v>
+      </c>
+      <c r="AU7" s="4">
+        <v>651</v>
+      </c>
+      <c r="AV7">
+        <v>39.94</v>
+      </c>
+      <c r="AW7">
+        <v>-75.12</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE7" s="3">
+        <v>45144</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>2024</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>37980</v>
+      </c>
+      <c r="I8" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8">
+        <v>101000</v>
+      </c>
+      <c r="M8">
+        <v>35000</v>
+      </c>
+      <c r="N8">
+        <v>55000</v>
+      </c>
+      <c r="O8">
         <v>85000</v>
       </c>
-      <c r="M2" s="6">
-        <v>24000</v>
-      </c>
-      <c r="N2" s="6">
-        <v>45000</v>
-      </c>
-      <c r="O2" s="6">
-        <v>67000</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="P8">
+        <v>2025</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>88</v>
+      </c>
+      <c r="R8" t="s">
+        <v>89</v>
+      </c>
+      <c r="S8" t="s">
+        <v>90</v>
+      </c>
+      <c r="T8" t="s">
+        <v>91</v>
+      </c>
+      <c r="U8">
+        <v>125</v>
+      </c>
+      <c r="V8">
+        <v>124</v>
+      </c>
+      <c r="W8">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="X8">
+        <v>98</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" t="s">
         <v>71</v>
       </c>
-      <c r="U2" s="6">
-        <v>50</v>
-      </c>
-      <c r="V2" s="6">
-        <v>40</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0.065</v>
-      </c>
-      <c r="X2" s="6">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AE8">
+        <v>560</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL8">
+        <v>1956</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO8">
         <v>76</v>
       </c>
-      <c r="AD2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AE2" s="6">
-        <v>921</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AI2" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AJ2" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AK2" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="AL2" s="6">
-        <v>2006</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO2" s="6">
-        <v>94</v>
-      </c>
-      <c r="AP2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AQ2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="AV2" s="8">
-        <v>40.571</v>
-      </c>
-      <c r="AW2" s="8">
-        <v>-77.56</v>
-      </c>
-      <c r="AX2" s="6">
-        <v>42027012000</v>
-      </c>
-      <c r="AY2" s="6">
-        <v>37964</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>99</v>
+      <c r="AP8" s="3">
+        <v>45063</v>
+      </c>
+      <c r="AQ8" s="3">
+        <v>45042</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>21673</v>
+      </c>
+      <c r="AT8" s="4">
+        <v>725</v>
+      </c>
+      <c r="AU8" s="4">
+        <v>1323</v>
+      </c>
+      <c r="AV8">
+        <v>39.97</v>
+      </c>
+      <c r="AW8">
+        <v>-74.94</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>135</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE8" s="3">
+        <v>45564</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>138</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="BB2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BB3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="BB4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="BB5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="BB6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="BB7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="BB8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Test Excels/HUD_Crawler_Test_Excel.xlsx
+++ b/Test Excels/HUD_Crawler_Test_Excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SectionM8 Business Documents\SectionM8 Fall 2025 Demo\SectionM8-Demo-Fall2025\Test Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD1A7AE2-FA43-4B1D-B39D-97252E655721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF5898-484C-416C-9F2C-6512E498D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1099,7 +1099,7 @@
         <v>19406</v>
       </c>
       <c r="L2">
-        <v>101000</v>
+        <v>85000</v>
       </c>
       <c r="M2">
         <v>24000</v>
@@ -1129,7 +1129,7 @@
         <v>50</v>
       </c>
       <c r="V2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="W2">
         <v>6.5000000000000002E-2</v>
@@ -1281,7 +1281,7 @@
         <v>19320</v>
       </c>
       <c r="L3">
-        <v>95000</v>
+        <v>85000</v>
       </c>
       <c r="M3">
         <v>30000</v>
@@ -1311,7 +1311,7 @@
         <v>134</v>
       </c>
       <c r="V3">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="W3">
         <v>2.1999999999999999E-2</v>
@@ -1493,7 +1493,7 @@
         <v>89</v>
       </c>
       <c r="V4">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="W4">
         <v>0.10100000000000001</v>
@@ -1675,7 +1675,7 @@
         <v>133</v>
       </c>
       <c r="V5">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="W5">
         <v>2.3E-2</v>
@@ -1857,7 +1857,7 @@
         <v>102</v>
       </c>
       <c r="V6">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="W6">
         <v>2.9000000000000001E-2</v>
@@ -2039,7 +2039,7 @@
         <v>48</v>
       </c>
       <c r="V7">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="W7">
         <v>6.2E-2</v>
@@ -2221,7 +2221,7 @@
         <v>125</v>
       </c>
       <c r="V8">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="W8">
         <v>8.0000000000000002E-3</v>

--- a/Test Excels/HUD_Crawler_Test_Excel.xlsx
+++ b/Test Excels/HUD_Crawler_Test_Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SectionM8 Business Documents\SectionM8 Fall 2025 Demo\SectionM8-Demo-Fall2025\Test Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4AF5898-484C-416C-9F2C-6512E498D379}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E2E1F1-3FF5-4AC1-8C17-07A70A21569F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1854,10 +1854,10 @@
         <v>91</v>
       </c>
       <c r="U6">
-        <v>102</v>
+        <v>18405</v>
       </c>
       <c r="V6">
-        <v>45</v>
+        <v>13459</v>
       </c>
       <c r="W6">
         <v>2.9000000000000001E-2</v>
